--- a/DCO_PCB/cmp.xlsx
+++ b/DCO_PCB/cmp.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boti&amp;Ima\Desktop\Work\BG2016\Etapa2018\prototype\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boti&amp;Ima\Desktop\Work\BG2016\Etapa2018\NAPOSIP\DCO_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="7515" activeTab="3"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="7515" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Prescaler" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="162">
   <si>
     <t>Nr biti</t>
   </si>
@@ -506,6 +506,18 @@
   </si>
   <si>
     <t>NB7N017M</t>
+  </si>
+  <si>
+    <t>https://www.silabs.com/documents/public/data-sheets/si570.pdf</t>
+  </si>
+  <si>
+    <t>1.8, 2.5, or 3.3 V supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 MHz to 1400 MHz</t>
+  </si>
+  <si>
+    <t>Si570</t>
   </si>
 </sst>
 </file>
@@ -3492,7 +3504,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3588,10 +3600,18 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="A8" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>158</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/DCO_PCB/cmp.xlsx
+++ b/DCO_PCB/cmp.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boti&amp;Ima\Desktop\Work\BG2016\Etapa2018\NAPOSIP\DCO_PCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Botix\Desktop\Work\NAPOSIP\DCO_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="7515" activeTab="3"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="19560" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="Prescaler" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Convertor V-&gt;f (putere)" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="171">
   <si>
     <t>Nr biti</t>
   </si>
@@ -518,6 +519,33 @@
   </si>
   <si>
     <t>Si570</t>
+  </si>
+  <si>
+    <t>HMC384LP4 / 384LP4E</t>
+  </si>
+  <si>
+    <t>2.05 - 2.25 GHz</t>
+  </si>
+  <si>
+    <t>3V @ 35 mA</t>
+  </si>
+  <si>
+    <t>http://www.analog.com/media/en/technical-documentation/data-sheets/hmc384.pdf</t>
+  </si>
+  <si>
+    <t>HMC905</t>
+  </si>
+  <si>
+    <t>3.15 - 3.45 V</t>
+  </si>
+  <si>
+    <t>Programmable Frequency Divider, N = 1, 2, 3 or 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;6GHz, &lt;0.4GHz </t>
+  </si>
+  <si>
+    <t>http://www.analog.com/media/en/technical-documentation/data-sheets/hmc905.pdf</t>
   </si>
 </sst>
 </file>
@@ -2094,7 +2122,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Temă Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2390,10 +2418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2558,6 +2586,23 @@
       </c>
       <c r="F9" s="3" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3501,10 +3546,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3611,6 +3656,20 @@
       </c>
       <c r="D8" s="17" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
